--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>372614.7683534079</v>
+        <v>361549.1648525065</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14046880.39707513</v>
+        <v>14046880.39707514</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.284901942</v>
+        <v>4671565.284901946</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7221427.213523678</v>
+        <v>7154845.006648052</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>19.15951198673113</v>
+        <v>376.2268075574874</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>189.7321519076238</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>260.4446813871638</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>58.67748875058466</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>32.8760743392677</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1063,16 +1065,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="T7" t="n">
-        <v>181.2635869532361</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1139,16 +1141,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>66.94107330041467</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.372914033244335</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1300,16 +1302,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>49.30653966551922</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>351.5583120685944</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
@@ -1382,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>93.62074026058869</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>4.378995526347924</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -1579,16 +1581,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>218.775754413495</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>235.3355092844521</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1622,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>11.2029639778262</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1670,10 +1672,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>51.58543740429392</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>58.67748875058538</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>97.41524734177234</v>
       </c>
     </row>
     <row r="18">
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>102.6315062697653</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>106.3397188323749</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>225.9625629917023</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2087,13 +2089,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864467</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.16614128474295</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>103.8121020651559</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2476,25 +2478,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>158.0577359003857</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>123.0673923170405</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2530,10 +2532,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2573,7 +2575,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>145.250995198281</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2810,7 +2812,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2953,13 +2955,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>82.49270437610961</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
         <v>218.7163152458132</v>
@@ -3205,7 +3207,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>92.01098438110748</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3284,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.54790254396433</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3442,7 +3444,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3474,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>213.8764542074655</v>
       </c>
       <c r="W37" t="n">
-        <v>244.3275881150121</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3520,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3667,16 +3669,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.13287386842549</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3755,10 +3757,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3901,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3983,19 +3985,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>252.4633837309817</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4135,19 +4137,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>149.1427835161698</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4186,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>115.1055716303395</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800.9555796531324</v>
+        <v>1700.695594043986</v>
       </c>
       <c r="C2" t="n">
-        <v>800.9555796531324</v>
+        <v>1273.794864057286</v>
       </c>
       <c r="D2" t="n">
-        <v>800.9555796531324</v>
+        <v>850.5022432422863</v>
       </c>
       <c r="E2" t="n">
-        <v>800.9555796531324</v>
+        <v>424.5253033901439</v>
       </c>
       <c r="F2" t="n">
-        <v>781.6025372422929</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L2" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M2" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N2" t="n">
-        <v>2059.098288819458</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O2" t="n">
-        <v>2224.911252462377</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="U2" t="n">
-        <v>1966.556343058789</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="V2" t="n">
-        <v>1609.066928185038</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="W2" t="n">
-        <v>1212.675578485385</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="X2" t="n">
-        <v>800.9555796531324</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="Y2" t="n">
-        <v>800.9555796531324</v>
+        <v>2120.543958335516</v>
       </c>
     </row>
     <row r="3">
@@ -4389,40 +4391,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K3" t="n">
-        <v>51.94486801115937</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L3" t="n">
-        <v>51.94486801115937</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M3" t="n">
-        <v>51.94486801115937</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N3" t="n">
-        <v>602.6104029955975</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O3" t="n">
-        <v>1153.275937980036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P3" t="n">
         <v>1389.040378766978</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.6261093758709</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C4" t="n">
-        <v>645.6535462547869</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D4" t="n">
-        <v>482.3367733815576</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E4" t="n">
-        <v>316.1285675344111</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F4" t="n">
-        <v>144.2667933089716</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G4" t="n">
-        <v>144.2667933089716</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J4" t="n">
         <v>101.9895532734055</v>
@@ -4492,46 +4494,46 @@
         <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T4" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U4" t="n">
-        <v>2033.262614171847</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V4" t="n">
-        <v>1751.551146779876</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W4" t="n">
-        <v>1476.698742952389</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X4" t="n">
-        <v>1234.134846398194</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y4" t="n">
-        <v>1007.792078087936</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>448.8372874597989</v>
+        <v>1805.062888170846</v>
       </c>
       <c r="C5" t="n">
-        <v>448.8372874597989</v>
+        <v>1378.162158184146</v>
       </c>
       <c r="D5" t="n">
-        <v>448.8372874597989</v>
+        <v>954.869537369146</v>
       </c>
       <c r="E5" t="n">
-        <v>448.8372874597989</v>
+        <v>528.8925975170035</v>
       </c>
       <c r="F5" t="n">
-        <v>448.8372874597989</v>
+        <v>103.7684157064037</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M5" t="n">
-        <v>1696.494830002562</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N5" t="n">
-        <v>2224.911252462377</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V5" t="n">
-        <v>1283.774063102812</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W5" t="n">
-        <v>887.3827134031587</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X5" t="n">
-        <v>854.1745575049085</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y5" t="n">
-        <v>448.8372874597989</v>
+        <v>2224.911252462376</v>
       </c>
     </row>
     <row r="6">
@@ -4626,40 +4628,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F6" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K6" t="n">
-        <v>595.1637600336857</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L6" t="n">
-        <v>595.1637600336857</v>
+        <v>201.1892506764434</v>
       </c>
       <c r="M6" t="n">
-        <v>1145.829295018124</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="N6" t="n">
-        <v>1696.494830002562</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="O6" t="n">
-        <v>1853.185855629757</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
         <v>1853.185855629757</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>545.9957668907073</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>374.0232037696233</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>210.706430896394</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4747,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2224.911252462376</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="T7" t="n">
-        <v>2041.81672018638</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="U7" t="n">
-        <v>1761.632271686684</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="V7" t="n">
-        <v>1479.920804294713</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1205.068400467226</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>962.5045039130309</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>736.161735602773</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1631.795888043992</v>
+        <v>1355.565386959618</v>
       </c>
       <c r="C8" t="n">
-        <v>1204.895158057293</v>
+        <v>928.6646569729185</v>
       </c>
       <c r="D8" t="n">
-        <v>781.6025372422929</v>
+        <v>505.3720361579187</v>
       </c>
       <c r="E8" t="n">
-        <v>781.6025372422929</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="F8" t="n">
-        <v>781.6025372422929</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="G8" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L8" t="n">
-        <v>407.101683866143</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505812</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="N8" t="n">
-        <v>1508.432753835019</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="O8" t="n">
-        <v>2059.098288819458</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S8" t="n">
-        <v>2120.543958335517</v>
+        <v>2157.294006704381</v>
       </c>
       <c r="T8" t="n">
-        <v>1899.61838738015</v>
+        <v>2157.294006704381</v>
       </c>
       <c r="U8" t="n">
-        <v>1641.263477976562</v>
+        <v>2157.294006704381</v>
       </c>
       <c r="V8" t="n">
-        <v>1641.263477976562</v>
+        <v>2157.294006704381</v>
       </c>
       <c r="W8" t="n">
-        <v>1641.263477976562</v>
+        <v>1760.902657004728</v>
       </c>
       <c r="X8" t="n">
-        <v>1641.263477976562</v>
+        <v>1760.902657004728</v>
       </c>
       <c r="Y8" t="n">
-        <v>1631.795888043992</v>
+        <v>1355.565386959618</v>
       </c>
     </row>
     <row r="9">
@@ -4863,43 +4865,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F9" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L9" t="n">
-        <v>1417.526784297715</v>
+        <v>838.37484378254</v>
       </c>
       <c r="M9" t="n">
-        <v>1853.185855629757</v>
+        <v>838.37484378254</v>
       </c>
       <c r="N9" t="n">
-        <v>1853.185855629757</v>
+        <v>838.37484378254</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>838.37484378254</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q9" t="n">
         <v>1853.185855629757</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>595.8003524114338</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>423.8277892903498</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>260.5110164171205</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>94.30281056997401</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>94.30281056997401</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>94.30281056997401</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4987,25 +4989,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2054.776204981511</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1811.43685720741</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>1811.43685720741</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V10" t="n">
-        <v>1529.725389815439</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1254.872985987952</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1012.309089433757</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>785.9663211234994</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1283.774063102812</v>
+        <v>1725.007578113641</v>
       </c>
       <c r="C11" t="n">
-        <v>928.6646569729185</v>
+        <v>1298.106848126941</v>
       </c>
       <c r="D11" t="n">
-        <v>505.3720361579187</v>
+        <v>874.8142273119413</v>
       </c>
       <c r="E11" t="n">
-        <v>79.39509630577632</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F11" t="n">
-        <v>79.39509630577632</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G11" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H11" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J11" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K11" t="n">
-        <v>957.7672188505812</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L11" t="n">
-        <v>1508.432753835019</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M11" t="n">
-        <v>1651.269438076291</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N11" t="n">
-        <v>1651.269438076291</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O11" t="n">
-        <v>1651.269438076291</v>
+        <v>1696.494830002561</v>
       </c>
       <c r="P11" t="n">
-        <v>1651.269438076291</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q11" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S11" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T11" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U11" t="n">
-        <v>1641.263477976562</v>
+        <v>2130.344848158751</v>
       </c>
       <c r="V11" t="n">
-        <v>1283.774063102812</v>
+        <v>2130.344848158751</v>
       </c>
       <c r="W11" t="n">
-        <v>1283.774063102812</v>
+        <v>2130.344848158751</v>
       </c>
       <c r="X11" t="n">
-        <v>1283.774063102812</v>
+        <v>2130.344848158751</v>
       </c>
       <c r="Y11" t="n">
-        <v>1283.774063102812</v>
+        <v>1725.007578113641</v>
       </c>
     </row>
     <row r="12">
@@ -5100,46 +5102,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F12" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I12" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J12" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K12" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751884</v>
       </c>
       <c r="L12" t="n">
-        <v>866.8612493132769</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="M12" t="n">
-        <v>866.8612493132769</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N12" t="n">
-        <v>866.8612493132769</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O12" t="n">
-        <v>866.8612493132769</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P12" t="n">
-        <v>1307.021068682275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q12" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R12" t="n">
         <v>1853.185855629757</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1127.679347573484</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="C13" t="n">
-        <v>955.7067844524004</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="D13" t="n">
-        <v>792.3900115791711</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="E13" t="n">
-        <v>626.1818057320246</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="F13" t="n">
         <v>454.3200315065851</v>
@@ -5194,7 +5196,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J13" t="n">
         <v>101.9895532734055</v>
@@ -5218,31 +5220,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q13" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R13" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S13" t="n">
-        <v>2007.737591668685</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T13" t="n">
-        <v>2007.737591668685</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U13" t="n">
-        <v>2007.737591668685</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V13" t="n">
-        <v>2007.737591668685</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W13" t="n">
-        <v>1786.751981150003</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X13" t="n">
-        <v>1544.188084595808</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y13" t="n">
-        <v>1317.84531628555</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>740.4003527616368</v>
+        <v>55.81435027937499</v>
       </c>
       <c r="C14" t="n">
-        <v>502.687717120776</v>
+        <v>55.81435027937499</v>
       </c>
       <c r="D14" t="n">
-        <v>79.39509630577632</v>
+        <v>55.81435027937499</v>
       </c>
       <c r="E14" t="n">
-        <v>79.39509630577632</v>
+        <v>55.81435027937499</v>
       </c>
       <c r="F14" t="n">
-        <v>79.39509630577632</v>
+        <v>55.81435027937499</v>
       </c>
       <c r="G14" t="n">
-        <v>79.39509630577632</v>
+        <v>55.81435027937499</v>
       </c>
       <c r="H14" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J14" t="n">
         <v>407.101683866143</v>
@@ -5285,43 +5287,43 @@
         <v>407.101683866143</v>
       </c>
       <c r="M14" t="n">
-        <v>957.7672188505812</v>
+        <v>957.767218850581</v>
       </c>
       <c r="N14" t="n">
         <v>1508.432753835019</v>
       </c>
       <c r="O14" t="n">
-        <v>1556.689382596036</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="P14" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q14" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S14" t="n">
-        <v>2120.543958335517</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T14" t="n">
-        <v>1899.61838738015</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U14" t="n">
-        <v>1899.61838738015</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="V14" t="n">
-        <v>1542.1289725064</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W14" t="n">
-        <v>1145.737622806746</v>
+        <v>887.3827134031578</v>
       </c>
       <c r="X14" t="n">
-        <v>1145.737622806746</v>
+        <v>475.6627145709051</v>
       </c>
       <c r="Y14" t="n">
-        <v>740.4003527616368</v>
+        <v>475.6627145709051</v>
       </c>
     </row>
     <row r="15">
@@ -5337,46 +5339,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F15" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J15" t="n">
-        <v>316.1957143288386</v>
+        <v>119.1699405917402</v>
       </c>
       <c r="K15" t="n">
-        <v>866.8612493132769</v>
+        <v>119.1699405917402</v>
       </c>
       <c r="L15" t="n">
-        <v>866.8612493132769</v>
+        <v>119.1699405917402</v>
       </c>
       <c r="M15" t="n">
-        <v>866.8612493132769</v>
+        <v>669.8354755761782</v>
       </c>
       <c r="N15" t="n">
-        <v>866.8612493132769</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O15" t="n">
-        <v>866.8612493132769</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P15" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q15" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R15" t="n">
         <v>1853.185855629757</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>268.5772905989112</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C16" t="n">
-        <v>96.60472747782725</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D16" t="n">
-        <v>96.60472747782725</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E16" t="n">
-        <v>96.60472747782725</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F16" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G16" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H16" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5458,28 +5460,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R16" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S16" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U16" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V16" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W16" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X16" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y16" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1745.792697513689</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="C17" t="n">
-        <v>1318.891967526989</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="D17" t="n">
-        <v>895.5993467119897</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E17" t="n">
-        <v>469.6224068598473</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F17" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G17" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H17" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J17" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K17" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L17" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="M17" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N17" t="n">
-        <v>1508.432753835019</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="O17" t="n">
-        <v>1556.689382596036</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P17" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q17" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S17" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T17" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U17" t="n">
-        <v>2165.64106180522</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V17" t="n">
-        <v>2165.64106180522</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W17" t="n">
-        <v>2165.64106180522</v>
+        <v>887.3827134031583</v>
       </c>
       <c r="X17" t="n">
-        <v>2165.64106180522</v>
+        <v>475.6627145709055</v>
       </c>
       <c r="Y17" t="n">
-        <v>2165.64106180522</v>
+        <v>377.2634748317415</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5582,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F18" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J18" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K18" t="n">
-        <v>595.1637600336857</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L18" t="n">
-        <v>1145.829295018124</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="M18" t="n">
-        <v>1145.829295018124</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N18" t="n">
-        <v>1145.829295018124</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O18" t="n">
-        <v>1696.494830002562</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P18" t="n">
         <v>1853.185855629757</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.5956631384639</v>
+        <v>1059.374972603678</v>
       </c>
       <c r="C19" t="n">
-        <v>733.5956631384639</v>
+        <v>955.7067844524003</v>
       </c>
       <c r="D19" t="n">
-        <v>733.5956631384639</v>
+        <v>792.390011579171</v>
       </c>
       <c r="E19" t="n">
-        <v>626.1818057320246</v>
+        <v>626.1818057320245</v>
       </c>
       <c r="F19" t="n">
-        <v>454.3200315065851</v>
+        <v>454.3200315065849</v>
       </c>
       <c r="G19" t="n">
-        <v>288.0630618008172</v>
+        <v>288.0630618008171</v>
       </c>
       <c r="H19" t="n">
-        <v>144.2667933089716</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J19" t="n">
         <v>101.9895532734055</v>
@@ -5680,7 +5682,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M19" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N19" t="n">
         <v>1451.88378161995</v>
@@ -5695,28 +5697,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R19" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S19" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U19" t="n">
-        <v>1484.213795394888</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V19" t="n">
-        <v>1202.502328002917</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.502328002917</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="X19" t="n">
-        <v>959.9384314487219</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="Y19" t="n">
-        <v>733.5956631384639</v>
+        <v>1249.540941315744</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>1227.456825633441</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>800.5560956467413</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I20" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L20" t="n">
-        <v>1031.927761025105</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="M20" t="n">
-        <v>2036.213862444163</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="N20" t="n">
-        <v>3012.464920930865</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U20" t="n">
-        <v>4531.487895805612</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>1455.701838756373</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>1455.701838756373</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>669.4262044372838</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C21" t="n">
-        <v>551.9203009547886</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D21" t="n">
-        <v>448.0803424700736</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E21" t="n">
-        <v>343.3784087430108</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>249.7325784259149</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H21" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M21" t="n">
-        <v>1910.990343986338</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R21" t="n">
-        <v>1910.990343986338</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S21" t="n">
-        <v>1829.666096547593</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T21" t="n">
-        <v>1687.786160845271</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U21" t="n">
-        <v>1503.017964764908</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V21" t="n">
-        <v>1298.044825904174</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W21" t="n">
-        <v>1101.523448737391</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X21" t="n">
-        <v>938.0461025040541</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y21" t="n">
-        <v>798.3532138573465</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3270.011978872612</v>
+        <v>315.6159039117385</v>
       </c>
       <c r="C22" t="n">
-        <v>3098.039415751528</v>
+        <v>210.7551947550153</v>
       </c>
       <c r="D22" t="n">
-        <v>2934.722642878299</v>
+        <v>210.7551947550153</v>
       </c>
       <c r="E22" t="n">
-        <v>2934.722642878299</v>
+        <v>210.7551947550153</v>
       </c>
       <c r="F22" t="n">
-        <v>2934.722642878299</v>
+        <v>210.7551947550153</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878299</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R22" t="n">
-        <v>5068.0970569786</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>4897.962009497735</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T22" t="n">
-        <v>4654.622661723635</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U22" t="n">
-        <v>4374.43821322394</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V22" t="n">
-        <v>4092.726745831969</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W22" t="n">
-        <v>3817.874342004482</v>
+        <v>974.688537488257</v>
       </c>
       <c r="X22" t="n">
-        <v>3575.310445450287</v>
+        <v>732.1246409340621</v>
       </c>
       <c r="Y22" t="n">
-        <v>3348.967677140029</v>
+        <v>505.7818726238041</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623572</v>
       </c>
       <c r="I23" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058284</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058284</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813275</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6063,19 +6065,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>935.3163081599862</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C25" t="n">
-        <v>763.3437450389022</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D25" t="n">
-        <v>600.0269721656729</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="E25" t="n">
-        <v>433.8187663185264</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="F25" t="n">
-        <v>261.9569920930868</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1869.241345563992</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1869.241345563992</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1594.388941736505</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>1351.82504518231</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>1125.482276872052</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E26" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6227,49 +6229,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>5021.974329743787</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y26" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="27">
@@ -6312,10 +6314,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>1191.617659878699</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>446.1370507523521</v>
+        <v>941.9189991784957</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312681</v>
+        <v>769.9464360574117</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6382,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6409,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1941.958004048024</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U28" t="n">
-        <v>1661.773555548329</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V28" t="n">
-        <v>1380.062088156358</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.20968432887</v>
+        <v>1557.543841010909</v>
       </c>
       <c r="X28" t="n">
-        <v>862.6457877746757</v>
+        <v>1314.979944456714</v>
       </c>
       <c r="Y28" t="n">
-        <v>636.3030194644177</v>
+        <v>1088.637176146456</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K29" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1852.677416841654</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2856.963518260712</v>
       </c>
       <c r="N29" t="n">
-        <v>3114.325629236558</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6503,7 +6505,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y29" t="n">
         <v>2960.549862354846</v>
@@ -6540,19 +6542,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M30" t="n">
-        <v>1021.509065974867</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
         <v>1910.990343986338</v>
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446.1370507523521</v>
+        <v>703.5688235070123</v>
       </c>
       <c r="C31" t="n">
-        <v>274.1644876312681</v>
+        <v>531.5962603859283</v>
       </c>
       <c r="D31" t="n">
-        <v>274.1644876312681</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E31" t="n">
-        <v>274.1644876312681</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1941.958004048024</v>
+        <v>2199.389776802685</v>
       </c>
       <c r="U31" t="n">
-        <v>1661.773555548329</v>
+        <v>1919.205328302989</v>
       </c>
       <c r="V31" t="n">
-        <v>1380.062088156358</v>
+        <v>1637.493860911018</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.20968432887</v>
+        <v>1362.641457083531</v>
       </c>
       <c r="X31" t="n">
-        <v>862.6457877746757</v>
+        <v>1120.077560529336</v>
       </c>
       <c r="Y31" t="n">
-        <v>636.3030194644177</v>
+        <v>893.7347922190779</v>
       </c>
     </row>
     <row r="32">
@@ -6698,31 +6700,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2837.65448214973</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3813.905540636431</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
         <v>5010.768376164567</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C33" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D33" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E33" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F33" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G33" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>4025.820723818556</v>
       </c>
       <c r="N33" t="n">
-        <v>1191.617659878699</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S33" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T33" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U33" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V33" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W33" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X33" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y33" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>1178.655655934086</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>1006.683092813002</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>843.366319939773</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>677.1581140926265</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>505.2963398671869</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>339.0393701614191</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>195.2431016695735</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6883,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U34" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="V34" t="n">
-        <v>2119.408873334071</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="W34" t="n">
-        <v>1844.556469506584</v>
+        <v>1837.728289510605</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>1595.16439295641</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>1368.821624646152</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7020,16 +7022,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>305.3113489363686</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3845.931202281452</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281452</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408222</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561076</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335636</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U37" t="n">
-        <v>4374.43821322394</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="V37" t="n">
-        <v>4092.726745831969</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="W37" t="n">
-        <v>3845.931202281452</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X37" t="n">
-        <v>3845.931202281452</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y37" t="n">
-        <v>3845.931202281452</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7178,46 +7180,46 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7253,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="P39" t="n">
         <v>1910.990343986338</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>537.3606176598659</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C40" t="n">
-        <v>365.3880545387819</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D40" t="n">
-        <v>202.0712816655526</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E40" t="n">
-        <v>202.0712816655526</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F40" t="n">
-        <v>202.0712816655526</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
         <v>202.0712816655526</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2276.520918729638</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2276.520918729638</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T40" t="n">
-        <v>2033.181570955538</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U40" t="n">
-        <v>1752.997122455842</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V40" t="n">
-        <v>1471.285655063871</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W40" t="n">
-        <v>1196.433251236384</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X40" t="n">
-        <v>953.8693546821894</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y40" t="n">
-        <v>727.5265863719314</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7409,52 +7411,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
-        <v>1180.414480198223</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L41" t="n">
-        <v>1180.414480198223</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.818868109901</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N41" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7494,13 +7496,13 @@
         <v>692.7876399741681</v>
       </c>
       <c r="L42" t="n">
-        <v>692.7876399741681</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M42" t="n">
-        <v>692.7876399741681</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N42" t="n">
-        <v>692.7876399741681</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O42" t="n">
         <v>1446.844867123559</v>
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7591,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>2235.67712750613</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>2235.67712750613</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>2119.408873334071</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1192.559954376912</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>765.6592243902124</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
-        <v>342.3666035752127</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>342.3666035752127</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>342.3666035752127</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>342.3666035752127</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>44.49822504924753</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>44.49822504924753</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>549.9383681074144</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L44" t="n">
-        <v>1100.603903091853</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M44" t="n">
-        <v>1100.603903091853</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N44" t="n">
-        <v>1100.603903091853</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O44" t="n">
-        <v>1651.269438076291</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>1651.269438076291</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>2107.354917580474</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462377</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>2224.911252462377</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>2224.911252462377</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
-        <v>1969.897733542193</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>1612.408318668442</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>1612.408318668442</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>1612.408318668442</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>1612.408318668442</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>611.6217160807028</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>494.1158125982075</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>390.2758541134926</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>285.5739203864298</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>191.928090069334</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693795</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>51.94486801115937</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>51.94486801115937</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K45" t="n">
-        <v>602.6104029955975</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L45" t="n">
-        <v>602.6104029955975</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="M45" t="n">
-        <v>1153.275937980036</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="N45" t="n">
-        <v>1153.275937980036</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="O45" t="n">
-        <v>1307.021068682275</v>
+        <v>1210.799010768326</v>
       </c>
       <c r="P45" t="n">
-        <v>1307.021068682275</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>1771.166545545054</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1853.185855629757</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1771.861608191012</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1629.98167248869</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1445.213476408327</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1240.240337547593</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1043.71896038081</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>880.2416141474731</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>740.5487255007655</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1127.679347573484</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C46" t="n">
-        <v>955.7067844524004</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="D46" t="n">
-        <v>792.3900115791711</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="E46" t="n">
-        <v>626.1818057320246</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="F46" t="n">
-        <v>454.3200315065851</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="G46" t="n">
-        <v>288.0630618008172</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>144.2667933089716</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924753</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>101.9895532734055</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>328.5171544792427</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>683.2064757736634</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743914</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1451.88378161995</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.311910299713</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2097.911122221614</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2224.911252462377</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2177.87263914955</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2177.87263914955</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T46" t="n">
-        <v>2177.87263914955</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U46" t="n">
-        <v>2177.87263914955</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V46" t="n">
-        <v>2061.60438497749</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W46" t="n">
-        <v>1786.751981150003</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X46" t="n">
-        <v>1544.188084595808</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y46" t="n">
-        <v>1317.84531628555</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>204.8788014195786</v>
+        <v>452.4011488286619</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>259.9167409896189</v>
+        <v>267.4386025673079</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8140,7 +8142,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>380.190801607238</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
         <v>417.7126065281028</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039383</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N5" t="n">
-        <v>571.0335849150666</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>204.8788014195786</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
@@ -8295,22 +8297,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>180.7888499740234</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>181.4456529820153</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>452.4414523720696</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>86.31943126580316</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8529,16 +8531,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>268.1828480767089</v>
       </c>
       <c r="M9" t="n">
-        <v>463.1564485244919</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
@@ -8547,10 +8549,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204226</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L11" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M11" t="n">
-        <v>181.710741931019</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>452.5855512828691</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>578.6270469489275</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>542.4468912513908</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8784,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>466.3767193553316</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8866,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8933,22 +8935,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150257</v>
       </c>
       <c r="N14" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O14" t="n">
-        <v>86.13502881159596</v>
+        <v>300.4142109955935</v>
       </c>
       <c r="P14" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>96.03708962878051</v>
       </c>
       <c r="K15" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P15" t="n">
-        <v>549.2245073196783</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,22 +9166,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L17" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N17" t="n">
-        <v>593.5074359500402</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O17" t="n">
         <v>86.13502881159596</v>
       </c>
       <c r="P17" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9240,25 +9242,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>578.7428998298237</v>
+        <v>462.5747547263938</v>
       </c>
       <c r="M18" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O18" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>180.0446044646217</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L20" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O20" t="n">
-        <v>866.431015736377</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>86.31943126580316</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9477,19 +9479,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1004.802661823039</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9498,10 +9500,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>379.9589183367962</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>218.8019602116015</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>742.2139937908412</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9875,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>124.3756766890881</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>129.135014084331</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O27" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10115,16 +10117,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>717.3655137896236</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>763.5414113871921</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
@@ -10188,7 +10190,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10197,13 +10199,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>951.5880457335786</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>507.2052537942219</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10355,7 +10357,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>772.3958632350179</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>466.324307620685</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,13 +10436,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N33" t="n">
         <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10592,7 +10594,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>517.6546514635598</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10601,7 +10603,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10668,19 +10670,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>227.5743145228559</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10826,13 +10828,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>229.9501690078898</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>276.0147300838795</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10899,7 +10901,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10911,13 +10913,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>949.8342934347922</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>473.9680076978074</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11060,13 +11062,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>586.4197136125397</v>
       </c>
       <c r="M41" t="n">
-        <v>877.2336749314295</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11142,7 +11144,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>784.1890535317962</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11151,7 +11153,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>784.8458565397888</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>546.3101998434627</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>594.539855548217</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>593.6187724716183</v>
+        <v>500.16489571931</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>178.4700015426657</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>729.034814152316</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11473,7 +11475,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>401.7134280057626</v>
+        <v>44.64613243500634</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -22717,13 +22719,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,10 +22761,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>87.65045210707495</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>18.44967133088761</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22781,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>341.6181830358612</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>374.7267245046625</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22951,16 +22953,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>53.3281253757179</v>
       </c>
       <c r="T7" t="n">
-        <v>59.64236734312294</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23027,16 +23029,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>36.38254788517632</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>391.9109833114142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23188,16 +23190,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>93.05176614140794</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,16 +23229,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23258,7 +23260,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07341061823843</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>162.1506200489631</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -23324,7 +23326,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>165.7641609568373</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23467,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>53.32812537571712</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>187.2962134023807</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -23510,10 +23512,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>283.6867307628793</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5577190788913</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>197.0938715589664</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>303.8686500028862</v>
       </c>
     </row>
     <row r="18">
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>67.62133122010788</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>58.20640495630006</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>189.6873176569125</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,13 +23977,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.098167740202</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>66.44073542471723</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -24139,7 +24141,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>6.536664108324516</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>19.29091348988661</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>43.01331382666399</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24649,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24856,7 +24858,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>158.4132499202494</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6.759898196019307</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -25132,7 +25134,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>65.01789851058589</v>
       </c>
       <c r="W37" t="n">
-        <v>27.77629167419997</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>40.43535331127309</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>3.307976578570162</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>15.45161649254038</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26074,13 +26076,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>163.7887810877119</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>474810.297205435</v>
+        <v>474810.2972054348</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>474810.2972054349</v>
+        <v>474810.2972054348</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>474810.2972054348</v>
+        <v>474810.2972054346</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>474810.2972054349</v>
+        <v>474810.2972054348</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>787638.6243510699</v>
+        <v>474810.2972054348</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>787638.6243510699</v>
+        <v>787638.6243510698</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>787638.6243510698</v>
+        <v>787638.6243510699</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>787638.6243510698</v>
+        <v>787638.6243510699</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>787638.6243510699</v>
+        <v>787638.6243510698</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>474810.2972054348</v>
+        <v>787638.6243510698</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>144000.362781502</v>
+      </c>
+      <c r="C2" t="n">
         <v>144000.3627815021</v>
-      </c>
-      <c r="C2" t="n">
-        <v>144000.362781502</v>
       </c>
       <c r="D2" t="n">
         <v>144000.362781502</v>
@@ -26329,31 +26331,31 @@
         <v>144000.362781502</v>
       </c>
       <c r="H2" t="n">
-        <v>238862.9213334152</v>
+        <v>144000.362781502</v>
       </c>
       <c r="I2" t="n">
         <v>238862.9213334151</v>
       </c>
       <c r="J2" t="n">
-        <v>238862.9213334152</v>
+        <v>238862.9213334151</v>
       </c>
       <c r="K2" t="n">
         <v>238862.9213334151</v>
       </c>
       <c r="L2" t="n">
-        <v>238862.9213334153</v>
+        <v>238862.9213334151</v>
       </c>
       <c r="M2" t="n">
+        <v>238862.9213334151</v>
+      </c>
+      <c r="N2" t="n">
         <v>238862.9213334152</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>238862.9213334151</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>238862.9213334152</v>
-      </c>
-      <c r="P2" t="n">
-        <v>144000.362781502</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>194952.1399875096</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>192142.8418533797</v>
       </c>
       <c r="J3" t="n">
         <v>145533.6699348165</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26326.44296043127</v>
+        <v>26326.44296043126</v>
       </c>
       <c r="C4" t="n">
-        <v>26326.44296043127</v>
+        <v>26326.44296043126</v>
       </c>
       <c r="D4" t="n">
-        <v>26326.44296043127</v>
+        <v>26326.44296043126</v>
       </c>
       <c r="E4" t="n">
-        <v>26326.44296043127</v>
+        <v>26326.44296043126</v>
       </c>
       <c r="F4" t="n">
         <v>26326.44296043127</v>
@@ -26433,13 +26435,13 @@
         <v>26326.44296043127</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389557</v>
+        <v>26326.44296043127</v>
       </c>
       <c r="I4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="J4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="K4" t="n">
         <v>43748.40045389556</v>
@@ -26457,7 +26459,7 @@
         <v>43748.40045389556</v>
       </c>
       <c r="P4" t="n">
-        <v>26326.44296043127</v>
+        <v>43748.40045389556</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742813</v>
+        <v>67446.2510374281</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742812</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136177.0646310946</v>
+        <v>-136177.0646310945</v>
       </c>
       <c r="C6" t="n">
-        <v>50227.66878364261</v>
+        <v>50227.66878364272</v>
       </c>
       <c r="D6" t="n">
-        <v>50227.66878364258</v>
+        <v>50227.66878364266</v>
       </c>
       <c r="E6" t="n">
-        <v>83855.26878364265</v>
+        <v>83855.26878364262</v>
       </c>
       <c r="F6" t="n">
         <v>83855.26878364259</v>
       </c>
       <c r="G6" t="n">
-        <v>83855.26878364265</v>
+        <v>83855.26878364258</v>
       </c>
       <c r="H6" t="n">
-        <v>-77587.68129641967</v>
+        <v>83855.2687836426</v>
       </c>
       <c r="I6" t="n">
-        <v>117364.4586910899</v>
+        <v>-74778.3831622898</v>
       </c>
       <c r="J6" t="n">
-        <v>-28169.21124372659</v>
+        <v>-28169.21124372655</v>
       </c>
       <c r="K6" t="n">
         <v>117364.4586910899</v>
       </c>
       <c r="L6" t="n">
-        <v>117364.45869109</v>
+        <v>117364.4586910898</v>
       </c>
       <c r="M6" t="n">
         <v>117364.4586910899</v>
@@ -26561,7 +26563,7 @@
         <v>117364.4586910899</v>
       </c>
       <c r="P6" t="n">
-        <v>83855.26878364265</v>
+        <v>117364.4586910899</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="G4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.783917572857</v>
+        <v>556.227813115594</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -26829,7 +26831,7 @@
         <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>556.2278131155941</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>722.5561044572627</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>722.5561044572626</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>722.5561044572627</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>167.4878420635545</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>238.1458997847902</v>
+        <v>245.6677613624792</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34860,7 +34862,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>358.2720417115368</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
         <v>395.137166636617</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391533</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N5" t="n">
-        <v>533.7539620806206</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>158.2737632597931</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M8" t="n">
-        <v>556.2278131155941</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="N8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>48.74406945557187</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>245.6677613624794</v>
       </c>
       <c r="M9" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L11" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M11" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>415.0101894726378</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>519.9318045371612</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>444.6058781505029</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35586,7 +35588,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,22 +35655,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N14" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O14" t="n">
-        <v>48.74406945557187</v>
+        <v>263.0232516395694</v>
       </c>
       <c r="P14" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>75.42597529544717</v>
       </c>
       <c r="K15" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P15" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,22 +35886,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N17" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O17" t="n">
         <v>48.74406945557187</v>
       </c>
       <c r="P17" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>556.2278131155941</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O18" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L20" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O20" t="n">
-        <v>829.040056380353</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>981.7058813107108</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>357.2118800478177</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>181.2265984013702</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>719.1172132785132</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>86.80031487885682</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>94.1023641895345</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O27" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36835,16 +36837,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>679.0534713570007</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>726.1504520311679</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>928.4912652212506</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37075,7 +37077,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>734.9646003355862</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>428.7489458104537</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N33" t="n">
         <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37312,7 +37314,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>480.2233885641281</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37321,7 +37323,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37546,13 +37548,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>191.6381265752669</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>238.7351072494335</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37631,13 +37633,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>928.4912652212506</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>452.1971664929787</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>548.1076711799168</v>
       </c>
       <c r="M41" t="n">
-        <v>839.8024120319977</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37862,7 +37864,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>761.6739668175666</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37871,7 +37873,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>761.6739668175666</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>510.5455990486533</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>556.2278131155941</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>556.2278131155941</v>
+        <v>462.7739363632859</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>155.2981118204435</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>707.2639729474873</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38195,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>361549.1648525065</v>
+        <v>358069.1937604218</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4671565.284901946</v>
+        <v>4671565.284901942</v>
       </c>
     </row>
     <row r="9">
@@ -670,13 +670,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>376.2268075574874</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>58.67748875058555</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -822,19 +822,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>101.9929615813396</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>260.4446813871638</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -898,19 +898,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>58.67748875058466</v>
+        <v>192.9726892635404</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1059,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>115.1055716303386</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>66.94107330041467</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>242.5938981288117</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>98.2633455906804</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1381,16 +1381,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>117.7395304238327</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>93.62074026058869</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.378995526347924</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>95.37952295492887</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>11.2029639778262</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>210.9418685899811</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>136.5035532442366</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -1900,19 +1900,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.41524734177234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,22 +2004,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>102.6315062697653</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>6.13287386842549</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2064,13 +2064,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>225.9625629917023</v>
+        <v>53.70741453069465</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -2241,7 +2241,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>103.8121020651559</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2478,7 +2478,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>123.0673923170405</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>145.250995198281</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2812,7 +2812,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>34.54790254396345</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2955,13 +2955,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>82.49270437610961</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>200.1143878900198</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3049,7 +3049,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>92.01098438110748</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3277,7 +3277,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -3286,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>213.8764542074655</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3517,13 +3517,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>25.45817320599514</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3760,7 +3760,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -4137,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>149.1427835161698</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1700.695594043986</v>
+        <v>1805.062888170846</v>
       </c>
       <c r="C2" t="n">
-        <v>1273.794864057286</v>
+        <v>1378.162158184147</v>
       </c>
       <c r="D2" t="n">
-        <v>850.5022432422863</v>
+        <v>954.8695373691469</v>
       </c>
       <c r="E2" t="n">
-        <v>424.5253033901439</v>
+        <v>528.8925975170044</v>
       </c>
       <c r="F2" t="n">
-        <v>44.49822504924752</v>
+        <v>103.7684157064047</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924752</v>
+        <v>103.7684157064047</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>595.1637600336854</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N2" t="n">
-        <v>1145.829295018124</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O2" t="n">
-        <v>1556.689382596035</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X2" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Y2" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134925</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864297</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693792</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924752</v>
+        <v>695.3677541233694</v>
       </c>
       <c r="K3" t="n">
-        <v>595.1637600336854</v>
+        <v>695.3677541233694</v>
       </c>
       <c r="L3" t="n">
-        <v>1145.829295018124</v>
+        <v>1128.080930530456</v>
       </c>
       <c r="M3" t="n">
-        <v>1145.829295018124</v>
+        <v>1128.080930530456</v>
       </c>
       <c r="N3" t="n">
-        <v>1145.829295018124</v>
+        <v>1128.080930530456</v>
       </c>
       <c r="O3" t="n">
-        <v>1145.829295018124</v>
+        <v>1128.080930530456</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1678.746465514894</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1027.91077931376</v>
+        <v>485.750951392604</v>
       </c>
       <c r="C4" t="n">
-        <v>855.9382161926764</v>
+        <v>313.77838827152</v>
       </c>
       <c r="D4" t="n">
-        <v>692.6214433194471</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="E4" t="n">
-        <v>526.4132374723006</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="F4" t="n">
-        <v>354.551463246861</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G4" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
         <v>101.9895532734055</v>
@@ -4509,31 +4509,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>2224.911252462376</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U4" t="n">
-        <v>2224.911252462376</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V4" t="n">
-        <v>1961.835816717766</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W4" t="n">
-        <v>1686.983412890279</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X4" t="n">
-        <v>1444.419516336084</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y4" t="n">
-        <v>1218.076748025826</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1805.062888170846</v>
+        <v>662.7127542112578</v>
       </c>
       <c r="C5" t="n">
-        <v>1378.162158184146</v>
+        <v>662.7127542112578</v>
       </c>
       <c r="D5" t="n">
-        <v>954.869537369146</v>
+        <v>239.4201333962581</v>
       </c>
       <c r="E5" t="n">
-        <v>528.8925975170035</v>
+        <v>239.4201333962581</v>
       </c>
       <c r="F5" t="n">
-        <v>103.7684157064037</v>
+        <v>239.4201333962581</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>2059.098288819457</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W5" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X5" t="n">
-        <v>2224.911252462376</v>
+        <v>1487.898388547897</v>
       </c>
       <c r="Y5" t="n">
-        <v>2224.911252462376</v>
+        <v>1082.561118502788</v>
       </c>
     </row>
     <row r="6">
@@ -4628,46 +4628,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924752</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L6" t="n">
-        <v>201.1892506764434</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M6" t="n">
-        <v>751.8547856608814</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N6" t="n">
-        <v>751.8547856608814</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2061.60438497749</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>2061.60438497749</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U7" t="n">
-        <v>2061.60438497749</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V7" t="n">
-        <v>2061.60438497749</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W7" t="n">
-        <v>1786.751981150003</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.188084595808</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1355.565386959618</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C8" t="n">
-        <v>928.6646569729185</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D8" t="n">
-        <v>505.3720361579187</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E8" t="n">
-        <v>79.39509630577631</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F8" t="n">
-        <v>79.39509630577631</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577631</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>595.1637600336854</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>1145.829295018124</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M8" t="n">
-        <v>1556.689382596035</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596035</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O8" t="n">
-        <v>1556.689382596035</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2157.294006704381</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2157.294006704381</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U8" t="n">
-        <v>2157.294006704381</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V8" t="n">
-        <v>2157.294006704381</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W8" t="n">
-        <v>1760.902657004728</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X8" t="n">
-        <v>1760.902657004728</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="Y8" t="n">
-        <v>1355.565386959618</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="9">
@@ -4865,46 +4865,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>838.37484378254</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>838.37484378254</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>838.37484378254</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>838.37484378254</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1127.679347573484</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C10" t="n">
-        <v>955.7067844524004</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D10" t="n">
-        <v>792.3900115791711</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E10" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F10" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4989,25 +4989,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462376</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V10" t="n">
-        <v>2061.60438497749</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W10" t="n">
-        <v>1786.751981150003</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X10" t="n">
-        <v>1544.188084595808</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y10" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1725.007578113641</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="C11" t="n">
-        <v>1298.106848126941</v>
+        <v>1472.71765739345</v>
       </c>
       <c r="D11" t="n">
-        <v>874.8142273119413</v>
+        <v>1049.425036578451</v>
       </c>
       <c r="E11" t="n">
-        <v>448.8372874597989</v>
+        <v>623.4480967263081</v>
       </c>
       <c r="F11" t="n">
-        <v>448.8372874597989</v>
+        <v>198.3239149157083</v>
       </c>
       <c r="G11" t="n">
-        <v>44.49822504924752</v>
+        <v>198.3239149157083</v>
       </c>
       <c r="H11" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J11" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K11" t="n">
-        <v>595.1637600336854</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L11" t="n">
         <v>1145.829295018124</v>
       </c>
       <c r="M11" t="n">
-        <v>1145.829295018124</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N11" t="n">
-        <v>1145.829295018124</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O11" t="n">
-        <v>1696.494830002561</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P11" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q11" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R11" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S11" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T11" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U11" t="n">
-        <v>2130.344848158751</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V11" t="n">
-        <v>2130.344848158751</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W11" t="n">
-        <v>2130.344848158751</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X11" t="n">
-        <v>2130.344848158751</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="Y11" t="n">
-        <v>1725.007578113641</v>
+        <v>1899.61838738015</v>
       </c>
     </row>
     <row r="12">
@@ -5102,46 +5102,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D12" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E12" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F12" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G12" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H12" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I12" t="n">
-        <v>51.94486801115936</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J12" t="n">
         <v>323.6423572907505</v>
       </c>
       <c r="K12" t="n">
-        <v>874.3078922751884</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="L12" t="n">
-        <v>1389.040378766978</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M12" t="n">
-        <v>1389.040378766978</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N12" t="n">
-        <v>1389.040378766978</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O12" t="n">
-        <v>1389.040378766978</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P12" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q12" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R12" t="n">
         <v>1853.185855629757</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>458.7432593109769</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C13" t="n">
-        <v>458.7432593109769</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D13" t="n">
-        <v>458.7432593109769</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E13" t="n">
-        <v>458.7432593109769</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F13" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G13" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H13" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I13" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J13" t="n">
         <v>101.9895532734055</v>
@@ -5223,28 +5223,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R13" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S13" t="n">
-        <v>2007.737591668684</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.398243894584</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U13" t="n">
-        <v>1484.213795394888</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V13" t="n">
-        <v>1202.502328002917</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W13" t="n">
-        <v>927.6499241754298</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X13" t="n">
-        <v>685.0860276212348</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y13" t="n">
-        <v>458.7432593109769</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55.81435027937499</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="C14" t="n">
-        <v>55.81435027937499</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D14" t="n">
-        <v>55.81435027937499</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E14" t="n">
-        <v>55.81435027937499</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F14" t="n">
-        <v>55.81435027937499</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G14" t="n">
-        <v>55.81435027937499</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I14" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J14" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K14" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L14" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M14" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N14" t="n">
-        <v>1508.432753835019</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O14" t="n">
-        <v>1768.825772958193</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P14" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q14" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R14" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S14" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T14" t="n">
-        <v>1899.618387380149</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U14" t="n">
-        <v>1641.263477976561</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V14" t="n">
-        <v>1283.774063102811</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W14" t="n">
-        <v>887.3827134031578</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X14" t="n">
-        <v>475.6627145709051</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Y14" t="n">
-        <v>475.6627145709051</v>
+        <v>1819.573982417267</v>
       </c>
     </row>
     <row r="15">
@@ -5339,43 +5339,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D15" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E15" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F15" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G15" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H15" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I15" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J15" t="n">
-        <v>119.1699405917402</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K15" t="n">
-        <v>119.1699405917402</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L15" t="n">
-        <v>119.1699405917402</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M15" t="n">
-        <v>669.8354755761782</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N15" t="n">
-        <v>1220.501010560616</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O15" t="n">
-        <v>1771.166545545054</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P15" t="n">
-        <v>1771.166545545054</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q15" t="n">
         <v>1771.166545545054</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1127.679347573484</v>
+        <v>382.7277578760994</v>
       </c>
       <c r="C16" t="n">
-        <v>955.7067844524004</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="D16" t="n">
-        <v>792.3900115791711</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="E16" t="n">
-        <v>626.1818057320246</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="F16" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G16" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H16" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I16" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J16" t="n">
         <v>101.9895532734055</v>
@@ -5463,25 +5463,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S16" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T16" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U16" t="n">
-        <v>2224.911252462376</v>
+        <v>1598.364262672076</v>
       </c>
       <c r="V16" t="n">
-        <v>2061.60438497749</v>
+        <v>1316.652795280105</v>
       </c>
       <c r="W16" t="n">
-        <v>1786.751981150003</v>
+        <v>1041.800391452618</v>
       </c>
       <c r="X16" t="n">
-        <v>1544.188084595808</v>
+        <v>799.236494898423</v>
       </c>
       <c r="Y16" t="n">
-        <v>1317.84531628555</v>
+        <v>572.893726588165</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>377.2634748317415</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="C17" t="n">
-        <v>377.2634748317415</v>
+        <v>1472.71765739345</v>
       </c>
       <c r="D17" t="n">
-        <v>377.2634748317415</v>
+        <v>1334.83528037907</v>
       </c>
       <c r="E17" t="n">
-        <v>377.2634748317415</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F17" t="n">
-        <v>377.2634748317415</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G17" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H17" t="n">
         <v>79.39509630577632</v>
       </c>
       <c r="I17" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J17" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K17" t="n">
-        <v>957.7672188505811</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L17" t="n">
-        <v>957.7672188505811</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="M17" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N17" t="n">
-        <v>2059.098288819457</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O17" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P17" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q17" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R17" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S17" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T17" t="n">
         <v>1899.61838738015</v>
       </c>
       <c r="U17" t="n">
-        <v>1641.263477976562</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V17" t="n">
-        <v>1283.774063102811</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W17" t="n">
-        <v>887.3827134031583</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X17" t="n">
-        <v>475.6627145709055</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="Y17" t="n">
-        <v>377.2634748317415</v>
+        <v>1899.61838738015</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F18" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G18" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H18" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I18" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J18" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K18" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L18" t="n">
-        <v>751.8547856608812</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N18" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O18" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P18" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q18" t="n">
         <v>1853.185855629757</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1059.374972603678</v>
+        <v>479.5561293032848</v>
       </c>
       <c r="C19" t="n">
-        <v>955.7067844524003</v>
+        <v>307.5835661822009</v>
       </c>
       <c r="D19" t="n">
-        <v>792.390011579171</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E19" t="n">
-        <v>626.1818057320245</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F19" t="n">
-        <v>454.3200315065849</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G19" t="n">
-        <v>288.0630618008171</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H19" t="n">
-        <v>144.2667933089715</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I19" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J19" t="n">
         <v>101.9895532734055</v>
@@ -5682,7 +5682,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M19" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N19" t="n">
         <v>1451.88378161995</v>
@@ -5700,25 +5700,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S19" t="n">
-        <v>2054.776204981511</v>
+        <v>2218.716430373057</v>
       </c>
       <c r="T19" t="n">
-        <v>1811.436857207411</v>
+        <v>1975.377082598957</v>
       </c>
       <c r="U19" t="n">
-        <v>1531.252408707715</v>
+        <v>1695.192634099261</v>
       </c>
       <c r="V19" t="n">
-        <v>1249.540941315744</v>
+        <v>1413.48116670729</v>
       </c>
       <c r="W19" t="n">
-        <v>1249.540941315744</v>
+        <v>1138.628762879803</v>
       </c>
       <c r="X19" t="n">
-        <v>1249.540941315744</v>
+        <v>896.0648663256084</v>
       </c>
       <c r="Y19" t="n">
-        <v>1249.540941315744</v>
+        <v>669.7220980153504</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1227.456825633441</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C20" t="n">
-        <v>800.5560956467413</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D20" t="n">
-        <v>377.2634748317415</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E20" t="n">
-        <v>377.2634748317415</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F20" t="n">
-        <v>377.2634748317415</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G20" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H20" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J20" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K20" t="n">
-        <v>957.7672188505811</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L20" t="n">
-        <v>957.7672188505811</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M20" t="n">
-        <v>957.7672188505811</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N20" t="n">
-        <v>1508.432753835019</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O20" t="n">
-        <v>2059.098288819457</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P20" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580473</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462376</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V20" t="n">
-        <v>1867.421837588626</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W20" t="n">
-        <v>1867.421837588626</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X20" t="n">
-        <v>1455.701838756373</v>
+        <v>800.9555796531324</v>
       </c>
       <c r="Y20" t="n">
-        <v>1455.701838756373</v>
+        <v>800.9555796531324</v>
       </c>
     </row>
     <row r="21">
@@ -5819,37 +5819,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F21" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J21" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K21" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L21" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M21" t="n">
-        <v>866.8612493132766</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N21" t="n">
-        <v>1417.526784297715</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O21" t="n">
-        <v>1417.526784297715</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P21" t="n">
-        <v>1417.526784297715</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q21" t="n">
         <v>1771.166545545054</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>315.6159039117385</v>
+        <v>388.3325623957711</v>
       </c>
       <c r="C22" t="n">
-        <v>210.7551947550153</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D22" t="n">
-        <v>210.7551947550153</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E22" t="n">
-        <v>210.7551947550153</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F22" t="n">
-        <v>210.7551947550153</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G22" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H22" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J22" t="n">
         <v>101.9895532734055</v>
@@ -5919,7 +5919,7 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M22" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N22" t="n">
         <v>1451.88378161995</v>
@@ -5937,25 +5937,25 @@
         <v>2224.911252462376</v>
       </c>
       <c r="S22" t="n">
-        <v>2054.776204981511</v>
+        <v>2127.492863465543</v>
       </c>
       <c r="T22" t="n">
-        <v>1811.436857207411</v>
+        <v>1884.153515691443</v>
       </c>
       <c r="U22" t="n">
-        <v>1531.252408707715</v>
+        <v>1603.969067191748</v>
       </c>
       <c r="V22" t="n">
-        <v>1249.540941315744</v>
+        <v>1322.257599799776</v>
       </c>
       <c r="W22" t="n">
-        <v>974.688537488257</v>
+        <v>1047.405195972289</v>
       </c>
       <c r="X22" t="n">
-        <v>732.1246409340621</v>
+        <v>804.8412994180946</v>
       </c>
       <c r="Y22" t="n">
-        <v>505.7818726238041</v>
+        <v>578.4985311078367</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623572</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
-        <v>102.3027134058284</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058284</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813275</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409524</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>326.3817789554925</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>326.3817789554925</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>326.3817789554925</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>326.3817789554925</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5021.974329743787</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6305,28 +6305,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>941.9189991784957</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>769.9464360574117</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>606.6296631841824</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>440.4214573370359</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6384,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2112.580693338092</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1832.396244838396</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1832.396244838396</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1557.543841010909</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1314.979944456714</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1088.637176146456</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D29" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E29" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L29" t="n">
-        <v>1852.677416841654</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M29" t="n">
-        <v>2856.963518260712</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N29" t="n">
-        <v>3833.214576747413</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747413</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X29" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y29" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1429.986740661465</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>703.5688235070123</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>531.5962603859283</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>368.279487512699</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>202.0712816655526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6648,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>2199.389776802685</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1919.205328302989</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1637.493860911018</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1362.641457083531</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1120.077560529336</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>893.7347922190779</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D32" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E32" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2837.65448214973</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3813.905540636431</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4659.050190787243</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787243</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W32" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X32" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y32" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>3306.448039710918</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>3306.448039710918</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>3306.448039710918</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M33" t="n">
-        <v>4025.820723818556</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N33" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1178.655655934086</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>1006.683092813002</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>843.366319939773</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>677.1581140926265</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>505.2963398671869</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>339.0393701614191</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>195.2431016695735</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2112.580693338092</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>2112.580693338092</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>2112.580693338092</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1837.728289510605</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1595.16439295641</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1368.821624646152</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F35" t="n">
         <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
         <v>137.1995846623573</v>
@@ -6937,52 +6937,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7095,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7119,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2235.67712750613</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2235.67712750613</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>2019.640305074347</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1744.78790124686</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1502.224004692665</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
         <v>137.1995846623573</v>
@@ -7174,52 +7174,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690842</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.8188681099</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854196</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="L39" t="n">
-        <v>374.0002026854196</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M39" t="n">
-        <v>374.0002026854196</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N39" t="n">
-        <v>1463.315149158289</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>1463.315149158289</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
         <v>1910.990343986338</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>517.8401132784822</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808981</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357521</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886056</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F40" t="n">
-        <v>512.124519863166</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G40" t="n">
         <v>345.8675501573982</v>
@@ -7332,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2257.000414348255</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>2013.661066574155</v>
       </c>
       <c r="U40" t="n">
-        <v>2282.715740818957</v>
+        <v>1733.476618074459</v>
       </c>
       <c r="V40" t="n">
-        <v>2001.004273426986</v>
+        <v>1451.765150682488</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.556469506584</v>
+        <v>1176.912746855001</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952389</v>
+        <v>934.3488503008059</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>708.006081990548</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7411,34 +7411,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1007.532766690842</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.8188681099</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N41" t="n">
-        <v>2988.069926596601</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
         <v>4789.842805209199</v>
@@ -7453,7 +7453,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
         <v>2960.549862354846</v>
@@ -7493,25 +7493,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>1446.844867123559</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>1446.844867123559</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N42" t="n">
-        <v>1446.844867123559</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O42" t="n">
-        <v>1446.844867123559</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P42" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7569,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,49 +7636,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2398.817321261059</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>3375.06837974776</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>3833.214576747413</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
@@ -7724,25 +7724,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L45" t="n">
-        <v>1210.799010768326</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M45" t="n">
-        <v>1210.799010768326</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N45" t="n">
-        <v>1210.799010768326</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O45" t="n">
-        <v>1210.799010768326</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
         <v>1910.990343986338</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>496.5168264363576</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C46" t="n">
-        <v>496.5168264363576</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D46" t="n">
-        <v>496.5168264363576</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E46" t="n">
-        <v>496.5168264363576</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F46" t="n">
-        <v>496.5168264363576</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573982</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T46" t="n">
-        <v>1992.33777973203</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U46" t="n">
-        <v>1712.153331232334</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V46" t="n">
-        <v>1430.441863840363</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W46" t="n">
-        <v>1155.589460012876</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X46" t="n">
-        <v>913.0255634586812</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y46" t="n">
-        <v>686.6827951484232</v>
+        <v>733.72140846125</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>452.4011488286619</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489273</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298235</v>
+        <v>459.5991032870441</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
@@ -8075,13 +8075,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>267.4386025673079</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039383</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>204.8788014195786</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>180.7888499740234</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378161</v>
+        <v>178.4700015426657</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204226</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,25 +8455,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>452.4414523720696</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>547.8252218830994</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>268.1828480767089</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>458.427044786356</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>577.9986543204226</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,28 +8692,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L11" t="n">
-        <v>594.5398555482168</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>571.1852249800523</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O11" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>452.5855512828691</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,10 +8771,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>578.6270469489273</v>
+        <v>459.4832504061476</v>
       </c>
       <c r="L12" t="n">
-        <v>542.4468912513908</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8786,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,28 +8929,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L14" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>593.6590760150257</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>593.50743595004</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>300.4142109955935</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03708962878051</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9014,19 +9014,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>579.3245936279219</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N15" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9166,25 +9166,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>591.9924139104033</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M17" t="n">
-        <v>593.6590760150258</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N17" t="n">
-        <v>593.5074359500401</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O17" t="n">
-        <v>86.13502881159596</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L18" t="n">
-        <v>462.5747547263938</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>541.7026457419896</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M20" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>593.5074359500401</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O20" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P20" t="n">
-        <v>86.31943126580316</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>579.324593627922</v>
+        <v>460.1807970851423</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
@@ -9500,7 +9500,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>379.9589183367962</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,19 +9646,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>165.4360762348142</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
@@ -9898,7 +9898,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>129.135014084331</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9962,10 +9962,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>1023.930471778425</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9974,10 +9974,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239236</v>
       </c>
       <c r="L29" t="n">
-        <v>717.3655137896236</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10126,16 +10126,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10202,16 +10202,16 @@
         <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>507.2052537942219</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>313.2411601358238</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,7 +10357,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>772.3958632350179</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10369,10 +10369,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>464.8736204150517</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685286</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10594,19 +10594,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10664,7 +10664,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>195.5685862122801</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
@@ -10673,7 +10673,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>1121.661155963915</v>
@@ -10685,10 +10685,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>229.9501690078898</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>467.0745387486232</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -10919,7 +10919,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>473.9680076978074</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11062,13 +11062,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>586.4197136125397</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N41" t="n">
         <v>1023.391803124043</v>
@@ -11141,28 +11141,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>784.1890535317962</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>573.1865904302379</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O44" t="n">
-        <v>500.16489571931</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>72.59316121846759</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11390,10 +11390,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>729.034814152316</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -22558,13 +22558,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>44.64613243500634</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>236.21220599012</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -22710,19 +22710,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>59.69064356315739</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22758,13 +22758,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>18.44967133088761</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22786,19 +22786,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>341.6181830358612</v>
+        <v>207.3229825229054</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -22834,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -22849,10 +22849,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22947,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>63.52994056050457</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>53.3281253757179</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23023,25 +23023,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>36.38254788517632</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>158.6899992158468</v>
       </c>
     </row>
     <row r="9">
@@ -23181,25 +23181,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>71.98949189919274</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,16 +23229,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>177.1501643168729</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>162.1506200489631</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23326,7 +23326,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23427,16 +23427,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>165.7641609568373</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>320.2703576936859</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>283.6867307628793</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>66.44073542471764</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23734,22 +23734,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>282.5561413626131</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>303.8686500028862</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>67.62133122010788</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>162.300823137631</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>189.6873176569125</v>
+        <v>361.94246611792</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -23983,13 +23983,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,13 +24025,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>66.44073542471723</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24138,10 +24138,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24177,7 +24177,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24375,16 +24375,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>19.29091348988661</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.01331382666399</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24651,16 +24651,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24858,7 +24858,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>158.4132499202494</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>6.759898196019307</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>65.01789851058589</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>142.9755238000614</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26034,16 +26034,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>15.45161649254038</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>45.9141007000632</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>474810.2972054348</v>
+        <v>474810.297205435</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>474810.2972054348</v>
+        <v>474810.2972054349</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>474810.2972054348</v>
+        <v>474810.2972054349</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>474810.2972054346</v>
+        <v>474810.2972054349</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>474810.2972054348</v>
+        <v>474810.2972054349</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>474810.2972054348</v>
+        <v>474810.2972054349</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>474810.2972054348</v>
+        <v>474810.2972054349</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>787638.6243510699</v>
+        <v>787638.6243510698</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>787638.6243510699</v>
+        <v>787638.6243510698</v>
       </c>
     </row>
     <row r="12">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>144000.3627815021</v>
+      </c>
+      <c r="C2" t="n">
         <v>144000.362781502</v>
-      </c>
-      <c r="C2" t="n">
-        <v>144000.3627815021</v>
       </c>
       <c r="D2" t="n">
         <v>144000.362781502</v>
@@ -26337,13 +26337,13 @@
         <v>238862.9213334151</v>
       </c>
       <c r="J2" t="n">
-        <v>238862.9213334151</v>
+        <v>238862.9213334152</v>
       </c>
       <c r="K2" t="n">
-        <v>238862.9213334151</v>
+        <v>238862.9213334152</v>
       </c>
       <c r="L2" t="n">
-        <v>238862.9213334151</v>
+        <v>238862.9213334152</v>
       </c>
       <c r="M2" t="n">
         <v>238862.9213334151</v>
@@ -26352,10 +26352,10 @@
         <v>238862.9213334152</v>
       </c>
       <c r="O2" t="n">
+        <v>238862.9213334152</v>
+      </c>
+      <c r="P2" t="n">
         <v>238862.9213334151</v>
-      </c>
-      <c r="P2" t="n">
-        <v>238862.9213334152</v>
       </c>
     </row>
     <row r="3">
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043127</v>
       </c>
       <c r="C4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043127</v>
       </c>
       <c r="D4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043127</v>
       </c>
       <c r="E4" t="n">
-        <v>26326.44296043126</v>
+        <v>26326.44296043127</v>
       </c>
       <c r="F4" t="n">
         <v>26326.44296043127</v>
@@ -26441,13 +26441,13 @@
         <v>43748.40045389556</v>
       </c>
       <c r="J4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389556</v>
       </c>
       <c r="K4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="L4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389558</v>
       </c>
       <c r="M4" t="n">
         <v>43748.40045389556</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.2510374281</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="F5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="G5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-136177.0646310945</v>
+        <v>-136786.1103435842</v>
       </c>
       <c r="C6" t="n">
-        <v>50227.66878364272</v>
+        <v>49618.62307115298</v>
       </c>
       <c r="D6" t="n">
-        <v>50227.66878364266</v>
+        <v>49618.62307115289</v>
       </c>
       <c r="E6" t="n">
-        <v>83855.26878364262</v>
+        <v>83246.22307115296</v>
       </c>
       <c r="F6" t="n">
-        <v>83855.26878364259</v>
+        <v>83246.22307115296</v>
       </c>
       <c r="G6" t="n">
-        <v>83855.26878364258</v>
+        <v>83246.22307115296</v>
       </c>
       <c r="H6" t="n">
-        <v>83855.2687836426</v>
+        <v>83246.22307115296</v>
       </c>
       <c r="I6" t="n">
-        <v>-74778.3831622898</v>
+        <v>-74829.41382447413</v>
       </c>
       <c r="J6" t="n">
-        <v>-28169.21124372655</v>
+        <v>-28220.24190591085</v>
       </c>
       <c r="K6" t="n">
-        <v>117364.4586910899</v>
+        <v>117313.4280289056</v>
       </c>
       <c r="L6" t="n">
-        <v>117364.4586910898</v>
+        <v>117313.4280289056</v>
       </c>
       <c r="M6" t="n">
-        <v>117364.4586910899</v>
+        <v>117313.4280289056</v>
       </c>
       <c r="N6" t="n">
-        <v>117364.4586910899</v>
+        <v>117313.4280289056</v>
       </c>
       <c r="O6" t="n">
-        <v>117364.4586910899</v>
+        <v>117313.4280289057</v>
       </c>
       <c r="P6" t="n">
-        <v>117364.4586910899</v>
+        <v>117313.4280289055</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="F4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="G4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="H4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="I4" t="n">
         <v>1278.783917572857</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>722.5561044572626</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>415.0101894726378</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155939</v>
+        <v>437.0840165728146</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>245.6677613624792</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391533</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>167.4878420635545</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155939</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>415.0101894726378</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>245.6677613624794</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L11" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O11" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>415.0101894726378</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>556.2278131155939</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="L12" t="n">
-        <v>519.9318045371612</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>263.0232516395694</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>75.42597529544717</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35886,25 +35886,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M17" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N17" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O17" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L18" t="n">
-        <v>440.0596680121643</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O20" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P20" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>556.227813115594</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="N21" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>357.2118800478177</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,19 +36366,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>142.264186512592</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
@@ -36618,7 +36618,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>94.1023641895345</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36682,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>1000.833691266097</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291143</v>
       </c>
       <c r="L29" t="n">
-        <v>679.0534713570007</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36846,16 +36846,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,7 +37077,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>734.9646003355862</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37089,10 +37089,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562006</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37314,19 +37314,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>174.9574718789468</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>1100.318127750374</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>191.6381265752669</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>452.1971664929787</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>548.1076711799168</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N41" t="n">
         <v>986.1121802895968</v>
@@ -37861,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>761.6739668175666</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O44" t="n">
-        <v>462.7739363632859</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>50.07807450423802</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>707.2639729474873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
